--- a/利润表/300917.xlsx
+++ b/利润表/300917.xlsx
@@ -714,14 +714,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>001</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>2</t>
@@ -734,47 +734,43 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2018-12-31 00:00:00</t>
+          <t>2020-06-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>51799452.62</v>
+        <v>44071294.14</v>
       </c>
       <c r="P2" t="n">
-        <v>699014994.91</v>
+        <v>488068692.66</v>
       </c>
       <c r="Q2" t="n">
-        <v>622031060.67</v>
-      </c>
-      <c r="R2" t="n">
-        <v>36.305857029</v>
-      </c>
+        <v>428381181.29</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>551870615.79</v>
+        <v>387860071.43</v>
       </c>
       <c r="T2" t="n">
-        <v>551870615.79</v>
-      </c>
-      <c r="U2" t="n">
-        <v>39.3236460557</v>
-      </c>
+        <v>387860071.43</v>
+      </c>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>6901953.28</v>
+        <v>4710234.38</v>
       </c>
       <c r="W2" t="n">
-        <v>58150126.03</v>
+        <v>32841329.34</v>
       </c>
       <c r="X2" t="n">
-        <v>176733.87</v>
+        <v>54502.32</v>
       </c>
       <c r="Y2" t="n">
-        <v>75203664.34</v>
+        <v>62546378.87</v>
       </c>
       <c r="Z2" t="n">
-        <v>75096920.33</v>
+        <v>62482519.65</v>
       </c>
       <c r="AA2" t="n">
-        <v>19826084.06</v>
+        <v>15260027.13</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -782,7 +778,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>4931631.7</v>
+        <v>2915043.82</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -793,19 +789,19 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>37.7108986915</v>
+        <v>21.8469833909</v>
       </c>
       <c r="AQ2" t="n">
-        <v>42.224296912202</v>
+        <v>57.055420470867</v>
       </c>
       <c r="AR2" t="n">
-        <v>48.929613786699</v>
+        <v>61.308047011112</v>
       </c>
       <c r="AS2" t="n">
-        <v>55753452.62</v>
+        <v>42115494.14</v>
       </c>
       <c r="AT2" t="n">
-        <v>39.522702054203</v>
+        <v>34.49544448596</v>
       </c>
     </row>
   </sheetData>

--- a/利润表/300917.xlsx
+++ b/利润表/300917.xlsx
@@ -714,7 +714,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -734,43 +734,47 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-06-30 00:00:00</t>
+          <t>2018-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>44071294.14</v>
+        <v>51799452.62</v>
       </c>
       <c r="P2" t="n">
-        <v>488068692.66</v>
+        <v>699014994.91</v>
       </c>
       <c r="Q2" t="n">
-        <v>428381181.29</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
+        <v>622031060.67</v>
+      </c>
+      <c r="R2" t="n">
+        <v>36.305857029</v>
+      </c>
       <c r="S2" t="n">
-        <v>387860071.43</v>
+        <v>551870615.79</v>
       </c>
       <c r="T2" t="n">
-        <v>387860071.43</v>
-      </c>
-      <c r="U2" t="inlineStr"/>
+        <v>551870615.79</v>
+      </c>
+      <c r="U2" t="n">
+        <v>39.3236460557</v>
+      </c>
       <c r="V2" t="n">
-        <v>4710234.38</v>
+        <v>6901953.28</v>
       </c>
       <c r="W2" t="n">
-        <v>32841329.34</v>
+        <v>58150126.03</v>
       </c>
       <c r="X2" t="n">
-        <v>54502.32</v>
+        <v>176733.87</v>
       </c>
       <c r="Y2" t="n">
-        <v>62546378.87</v>
+        <v>75203664.34</v>
       </c>
       <c r="Z2" t="n">
-        <v>62482519.65</v>
+        <v>75096920.33</v>
       </c>
       <c r="AA2" t="n">
-        <v>15260027.13</v>
+        <v>19826084.06</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -778,7 +782,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>2915043.82</v>
+        <v>4931631.7</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -789,19 +793,19 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>21.8469833909</v>
+        <v>37.7108986915</v>
       </c>
       <c r="AQ2" t="n">
-        <v>57.055420470867</v>
+        <v>42.224296912202</v>
       </c>
       <c r="AR2" t="n">
-        <v>61.308047011112</v>
+        <v>48.929613786699</v>
       </c>
       <c r="AS2" t="n">
-        <v>42115494.14</v>
+        <v>55753452.62</v>
       </c>
       <c r="AT2" t="n">
-        <v>34.49544448596</v>
+        <v>39.522702054203</v>
       </c>
     </row>
   </sheetData>
